--- a/biology/Botanique/Square_de_l'Abbé-Migne/Square_de_l'Abbé-Migne.xlsx
+++ b/biology/Botanique/Square_de_l'Abbé-Migne/Square_de_l'Abbé-Migne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_de_l%27Abb%C3%A9-Migne</t>
+          <t>Square_de_l'Abbé-Migne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square de l'Abbé-Migne est un espace vert du 14e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_de_l%27Abb%C3%A9-Migne</t>
+          <t>Square_de_l'Abbé-Migne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Non clôturé, le square fait partie de la place Denfert-Rochereau[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Non clôturé, le square fait partie de la place Denfert-Rochereau.
 Il est desservi par les lignes 4 et 6 à la station Denfert-Rochereau.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_de_l%27Abb%C3%A9-Migne</t>
+          <t>Square_de_l'Abbé-Migne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +558,16 @@
           <t>Description, histoire et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé en 1891, d'une superficie de 1 518 m2, il est l'un des trois squares situés place Denfert-Rochereau. Au niveau de la place se trouvait autrefois la barrière d'Enfer du mur des Fermiers généraux[1].
-Il reste du monument à Nicolas-Toussaint Charlet (1792-1845), auteur français, une colonne avec son portrait en médaillon en bronze réalisé en 1896 par Charpentier[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé en 1891, d'une superficie de 1 518 m2, il est l'un des trois squares situés place Denfert-Rochereau. Au niveau de la place se trouvait autrefois la barrière d'Enfer du mur des Fermiers généraux.
+Il reste du monument à Nicolas-Toussaint Charlet (1792-1845), auteur français, une colonne avec son portrait en médaillon en bronze réalisé en 1896 par Charpentier.
 Les autres statues en bronze ont été fondues durant la Seconde Guerre mondiale à la suite d'une décision du gouvernement de Vichy en 1941.
 			Carte postale, vers 1905.
 			Le monument de nos jours.
-Le square est planté d'un platane à feuilles d'érable et d'un arbre aux quarante écus. Outre un massif de rosiers, des tulipes et des iris y fleurissent au printemps[1].
+Le square est planté d'un platane à feuilles d'érable et d'un arbre aux quarante écus. Outre un massif de rosiers, des tulipes et des iris y fleurissent au printemps.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_de_l%27Abb%C3%A9-Migne</t>
+          <t>Square_de_l'Abbé-Migne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce square porte le nom de l’abbé Migne (1800-1875), ecclésiastique et éditeur français qui œuvra au Petit-Montrouge[2], agglomération à l’origine du quartier du Petit-Montrouge du 14e arrondissement de Paris.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce square porte le nom de l’abbé Migne (1800-1875), ecclésiastique et éditeur français qui œuvra au Petit-Montrouge, agglomération à l’origine du quartier du Petit-Montrouge du 14e arrondissement de Paris.
 			L’abbé Migne.
 			Ouvrage édité en 1840 par J.-P. M., rue d’Amboise (cette voie, devenue la rue Thibaud en 1864, est à distinguer de la rue d’Amboise du 2e arrondissement), barrière d’Enfer.
 </t>
